--- a/SolarThermalDesign/Water/ResultAnalysis/ratio-DNI.xlsx
+++ b/SolarThermalDesign/Water/ResultAnalysis/ratio-DNI.xlsx
@@ -95,576 +95,7 @@
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="60">
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color theme="9" tint="-0.24994659260841701"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFFFF00"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <condense val="0"/>
-        <extend val="0"/>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="5">
     <dxf>
       <font>
         <condense val="0"/>
@@ -956,21 +387,13 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:dPt>
-            <c:idx val="12"/>
-            <c:marker/>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="13"/>
-            <c:spPr/>
-          </c:dPt>
           <c:dLbls>
             <c:dLbl>
               <c:idx val="12"/>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="8.0540896419764035E-17"/>
-                  <c:y val="-2.2764227642276424E-2"/>
+                  <c:x val="8.0540896419764207E-17"/>
+                  <c:y val="-2.2764227642276435E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:showVal val="1"/>
@@ -1819,11 +1242,457 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="100557952"/>
-        <c:axId val="100560256"/>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1167</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1033</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6670000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3330000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6670000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.3329999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6669999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$3:$H$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-5.0090000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-4.0330000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-3.1359999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.313E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.56E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-8.7310000000000003E-4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.4879999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1639999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8.2569999999999996E-4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.2819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.688E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0460000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.359E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.6289999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.8570000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.0469999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.199E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.3159999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.3990000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.4499999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.47E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.4610000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.4229999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.3579999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.2680000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.153E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0140000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8530000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6689999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4650000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.2409999999999999E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$3:$B$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.24329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.2233</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.2167</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.21</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.20330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.18329999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.1767</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.1633</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.15670000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.14330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.13669999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.13</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12330000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.1167</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.11</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.1033</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.6670000000000006E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.3330000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>7.6670000000000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.3329999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6669999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.05</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$3:$I$33</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="31"/>
+                <c:pt idx="0">
+                  <c:v>-2.052E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.9099999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.7760000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.6500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.5310000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.4189999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.3129999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.213E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.119E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.031E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-9.4739999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-8.6890000000000005E-3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-7.9520000000000007E-3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-7.26E-3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-6.6100000000000004E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-6.0010000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-5.4299999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-4.8960000000000002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.398E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-3.934E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-3.5019999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.101E-3</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-2.7299999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-2.3869999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-2.0709999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-1.7819999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-1.5169999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-1.2769999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-1.06E-3</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-8.6560000000000001E-4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-6.9240000000000002E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:axId val="94800128"/>
+        <c:axId val="94802304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="100557952"/>
+        <c:axId val="94800128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1849,12 +1718,12 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100560256"/>
+        <c:crossAx val="94802304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="100560256"/>
+        <c:axId val="94802304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1881,7 +1750,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="100557952"/>
+        <c:crossAx val="94800128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1890,7 +1759,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1900,13 +1769,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>9524</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>304799</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
@@ -2216,10 +2085,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K34"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2227,10 +2096,10 @@
     <col min="1" max="1" width="12.75" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="12.75" customWidth="1"/>
     <col min="6" max="6" width="13.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="12.75" style="2" customWidth="1"/>
+    <col min="7" max="13" width="12.75" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:16">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -2240,13 +2109,13 @@
       <c r="F1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="N1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2265,11 +2134,23 @@
       <c r="G2" s="2">
         <v>600</v>
       </c>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="H2" s="2">
+        <v>500</v>
+      </c>
+      <c r="I2" s="2">
+        <v>400</v>
+      </c>
+      <c r="J2" s="2">
+        <v>300</v>
+      </c>
+      <c r="K2" s="2">
+        <v>200</v>
+      </c>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="3"/>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1"/>
       <c r="B3" s="2">
         <v>0.25</v>
@@ -2290,13 +2171,19 @@
         <v>5.2804000000000002E-3</v>
       </c>
       <c r="H3" s="2">
+        <v>-5.0090000000000004E-3</v>
+      </c>
+      <c r="I3" s="2">
+        <v>-2.052E-2</v>
+      </c>
+      <c r="M3" s="2">
         <v>1</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="1"/>
       <c r="B4" s="2">
         <v>0.24329999999999999</v>
@@ -2317,13 +2204,19 @@
         <v>5.9554200000000003E-3</v>
       </c>
       <c r="H4" s="2">
+        <v>-4.0330000000000001E-3</v>
+      </c>
+      <c r="I4" s="2">
+        <v>-1.9099999999999999E-2</v>
+      </c>
+      <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>0.23669999999999999</v>
@@ -2344,13 +2237,19 @@
         <v>6.5533199999999996E-3</v>
       </c>
       <c r="H5" s="2">
+        <v>-3.1359999999999999E-3</v>
+      </c>
+      <c r="I5" s="2">
+        <v>-1.7760000000000001E-2</v>
+      </c>
+      <c r="M5" s="2">
         <v>3</v>
       </c>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="3"/>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="1"/>
       <c r="B6" s="2">
         <v>0.23</v>
@@ -2371,13 +2270,19 @@
         <v>7.0785600000000002E-3</v>
       </c>
       <c r="H6" s="2">
+        <v>-2.313E-3</v>
+      </c>
+      <c r="I6" s="2">
+        <v>-1.6500000000000001E-2</v>
+      </c>
+      <c r="M6" s="2">
         <v>4</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="1"/>
       <c r="B7" s="2">
         <v>0.2233</v>
@@ -2398,13 +2303,19 @@
         <v>7.5353199999999999E-3</v>
       </c>
       <c r="H7" s="2">
+        <v>-1.56E-3</v>
+      </c>
+      <c r="I7" s="2">
+        <v>-1.5310000000000001E-2</v>
+      </c>
+      <c r="M7" s="2">
         <v>5</v>
       </c>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="1"/>
       <c r="B8" s="2">
         <v>0.2167</v>
@@ -2425,13 +2336,19 @@
         <v>7.9275100000000005E-3</v>
       </c>
       <c r="H8" s="2">
+        <v>-8.7310000000000003E-4</v>
+      </c>
+      <c r="I8" s="2">
+        <v>-1.4189999999999999E-2</v>
+      </c>
+      <c r="M8" s="2">
         <v>6</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="1"/>
       <c r="B9" s="2">
         <v>0.21</v>
@@ -2452,13 +2369,19 @@
         <v>8.2587600000000004E-3</v>
       </c>
       <c r="H9" s="2">
+        <v>-2.4879999999999998E-4</v>
+      </c>
+      <c r="I9" s="2">
+        <v>-1.3129999999999999E-2</v>
+      </c>
+      <c r="M9" s="2">
         <v>7</v>
       </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="1"/>
       <c r="B10" s="2">
         <v>0.20330000000000001</v>
@@ -2479,13 +2402,19 @@
         <v>8.5324200000000006E-3</v>
       </c>
       <c r="H10" s="2">
+        <v>3.1639999999999999E-4</v>
+      </c>
+      <c r="I10" s="2">
+        <v>-1.213E-2</v>
+      </c>
+      <c r="M10" s="2">
         <v>8</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="1"/>
       <c r="B11" s="2">
         <v>0.19670000000000001</v>
@@ -2506,10 +2435,16 @@
         <v>8.7516399999999998E-3</v>
       </c>
       <c r="H11" s="2">
+        <v>8.2569999999999996E-4</v>
+      </c>
+      <c r="I11" s="2">
+        <v>-1.119E-2</v>
+      </c>
+      <c r="M11" s="2">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:16">
       <c r="A12" s="1"/>
       <c r="B12" s="2">
         <v>0.19</v>
@@ -2530,10 +2465,16 @@
         <v>8.9193299999999996E-3</v>
       </c>
       <c r="H12" s="2">
+        <v>1.2819999999999999E-3</v>
+      </c>
+      <c r="I12" s="2">
+        <v>-1.031E-2</v>
+      </c>
+      <c r="M12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:16">
       <c r="A13" s="1"/>
       <c r="B13" s="2">
         <v>0.18329999999999999</v>
@@ -2554,10 +2495,16 @@
         <v>9.0382099999999996E-3</v>
       </c>
       <c r="H13" s="2">
+        <v>1.688E-3</v>
+      </c>
+      <c r="I13" s="2">
+        <v>-9.4739999999999998E-3</v>
+      </c>
+      <c r="M13" s="2">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:16">
       <c r="A14" s="1"/>
       <c r="B14" s="2">
         <v>0.1767</v>
@@ -2578,10 +2525,16 @@
         <v>9.1108300000000003E-3</v>
       </c>
       <c r="H14" s="2">
+        <v>2.0460000000000001E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>-8.6890000000000005E-3</v>
+      </c>
+      <c r="M14" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:16">
       <c r="A15" s="1"/>
       <c r="B15" s="2">
         <v>0.17</v>
@@ -2602,10 +2555,16 @@
         <v>9.1395699999999996E-3</v>
       </c>
       <c r="H15" s="2">
+        <v>2.359E-3</v>
+      </c>
+      <c r="I15" s="2">
+        <v>-7.9520000000000007E-3</v>
+      </c>
+      <c r="M15" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:16">
       <c r="A16" s="1"/>
       <c r="B16" s="2">
         <v>0.1633</v>
@@ -2626,10 +2585,16 @@
         <v>9.1266400000000001E-3</v>
       </c>
       <c r="H16" s="2">
+        <v>2.6289999999999998E-3</v>
+      </c>
+      <c r="I16" s="2">
+        <v>-7.26E-3</v>
+      </c>
+      <c r="M16" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:13">
       <c r="A17" s="1"/>
       <c r="B17" s="2">
         <v>0.15670000000000001</v>
@@ -2650,10 +2615,16 @@
         <v>9.0741299999999997E-3</v>
       </c>
       <c r="H17" s="2">
+        <v>2.8570000000000002E-3</v>
+      </c>
+      <c r="I17" s="2">
+        <v>-6.6100000000000004E-3</v>
+      </c>
+      <c r="M17" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:13">
       <c r="A18" s="1"/>
       <c r="B18" s="2">
         <v>0.15</v>
@@ -2674,10 +2645,16 @@
         <v>8.9840000000000007E-3</v>
       </c>
       <c r="H18" s="2">
+        <v>3.0469999999999998E-3</v>
+      </c>
+      <c r="I18" s="2">
+        <v>-6.0010000000000003E-3</v>
+      </c>
+      <c r="M18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:13">
       <c r="A19" s="1"/>
       <c r="B19" s="2">
         <v>0.14330000000000001</v>
@@ -2698,10 +2675,16 @@
         <v>8.8580900000000008E-3</v>
       </c>
       <c r="H19" s="2">
+        <v>3.199E-3</v>
+      </c>
+      <c r="I19" s="2">
+        <v>-5.4299999999999999E-3</v>
+      </c>
+      <c r="M19" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:13">
       <c r="A20" s="1"/>
       <c r="B20" s="2">
         <v>0.13669999999999999</v>
@@ -2722,10 +2705,16 @@
         <v>8.6981200000000002E-3</v>
       </c>
       <c r="H20" s="2">
+        <v>3.3159999999999999E-3</v>
+      </c>
+      <c r="I20" s="2">
+        <v>-4.8960000000000002E-3</v>
+      </c>
+      <c r="M20" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:13">
       <c r="A21" s="1"/>
       <c r="B21" s="2">
         <v>0.13</v>
@@ -2746,10 +2735,16 @@
         <v>8.5057099999999997E-3</v>
       </c>
       <c r="H21" s="2">
+        <v>3.3990000000000001E-3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>-4.398E-3</v>
+      </c>
+      <c r="M21" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:13">
       <c r="A22" s="1"/>
       <c r="B22" s="2">
         <v>0.12330000000000001</v>
@@ -2770,10 +2765,16 @@
         <v>8.2824000000000005E-3</v>
       </c>
       <c r="H22" s="2">
+        <v>3.4499999999999999E-3</v>
+      </c>
+      <c r="I22" s="2">
+        <v>-3.934E-3</v>
+      </c>
+      <c r="M22" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:13">
       <c r="A23" s="1"/>
       <c r="B23" s="2">
         <v>0.1167</v>
@@ -2794,10 +2795,16 @@
         <v>8.0296199999999995E-3</v>
       </c>
       <c r="H23" s="2">
+        <v>3.47E-3</v>
+      </c>
+      <c r="I23" s="2">
+        <v>-3.5019999999999999E-3</v>
+      </c>
+      <c r="M23" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:13">
       <c r="A24" s="1"/>
       <c r="B24" s="2">
         <v>0.11</v>
@@ -2818,10 +2825,16 @@
         <v>7.7487399999999996E-3</v>
       </c>
       <c r="H24" s="2">
+        <v>3.4610000000000001E-3</v>
+      </c>
+      <c r="I24" s="2">
+        <v>-3.101E-3</v>
+      </c>
+      <c r="M24" s="2">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:13">
       <c r="A25" s="1"/>
       <c r="B25" s="2">
         <v>0.1033</v>
@@ -2842,10 +2855,16 @@
         <v>7.4410500000000003E-3</v>
       </c>
       <c r="H25" s="2">
+        <v>3.4229999999999998E-3</v>
+      </c>
+      <c r="I25" s="2">
+        <v>-2.7299999999999998E-3</v>
+      </c>
+      <c r="M25" s="2">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:13">
       <c r="A26" s="1"/>
       <c r="B26" s="2">
         <v>9.6670000000000006E-2</v>
@@ -2866,10 +2885,16 @@
         <v>7.1077500000000004E-3</v>
       </c>
       <c r="H26" s="2">
+        <v>3.3579999999999999E-3</v>
+      </c>
+      <c r="I26" s="2">
+        <v>-2.3869999999999998E-3</v>
+      </c>
+      <c r="M26" s="2">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:13">
       <c r="A27" s="1"/>
       <c r="B27" s="2">
         <v>0.09</v>
@@ -2890,10 +2915,16 @@
         <v>6.7500099999999999E-3</v>
       </c>
       <c r="H27" s="2">
+        <v>3.2680000000000001E-3</v>
+      </c>
+      <c r="I27" s="2">
+        <v>-2.0709999999999999E-3</v>
+      </c>
+      <c r="M27" s="2">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:13">
       <c r="A28" s="1"/>
       <c r="B28" s="2">
         <v>8.3330000000000001E-2</v>
@@ -2914,10 +2945,16 @@
         <v>6.3689000000000003E-3</v>
       </c>
       <c r="H28" s="2">
+        <v>3.153E-3</v>
+      </c>
+      <c r="I28" s="2">
+        <v>-1.7819999999999999E-3</v>
+      </c>
+      <c r="M28" s="2">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:13">
       <c r="A29" s="1"/>
       <c r="B29" s="2">
         <v>7.6670000000000002E-2</v>
@@ -2938,10 +2975,16 @@
         <v>5.9654699999999996E-3</v>
       </c>
       <c r="H29" s="2">
+        <v>3.0140000000000002E-3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>-1.5169999999999999E-3</v>
+      </c>
+      <c r="M29" s="2">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:13">
       <c r="A30" s="1"/>
       <c r="B30" s="2">
         <v>7.0000000000000007E-2</v>
@@ -2962,10 +3005,16 @@
         <v>5.5406800000000001E-3</v>
       </c>
       <c r="H30" s="2">
+        <v>2.8530000000000001E-3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>-1.2769999999999999E-3</v>
+      </c>
+      <c r="M30" s="2">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:13">
       <c r="A31" s="1"/>
       <c r="B31" s="2">
         <v>6.3329999999999997E-2</v>
@@ -2986,10 +3035,16 @@
         <v>5.0954700000000004E-3</v>
       </c>
       <c r="H31" s="2">
+        <v>2.6689999999999999E-3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>-1.06E-3</v>
+      </c>
+      <c r="M31" s="2">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:13">
       <c r="A32" s="1"/>
       <c r="B32" s="2">
         <v>5.6669999999999998E-2</v>
@@ -3010,10 +3065,16 @@
         <v>4.6307299999999996E-3</v>
       </c>
       <c r="H32" s="2">
+        <v>2.4650000000000002E-3</v>
+      </c>
+      <c r="I32" s="2">
+        <v>-8.6560000000000001E-4</v>
+      </c>
+      <c r="M32" s="2">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:13">
       <c r="A33" s="1"/>
       <c r="B33" s="2">
         <v>0.05</v>
@@ -3034,61 +3095,73 @@
         <v>4.1472799999999997E-3</v>
       </c>
       <c r="H33" s="2">
+        <v>2.2409999999999999E-3</v>
+      </c>
+      <c r="I33" s="2">
+        <v>-6.9240000000000002E-4</v>
+      </c>
+      <c r="M33" s="2">
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:13">
       <c r="C34">
-        <f>VLOOKUP(MAX(C3:C33),C3:H33,6,FALSE)</f>
-        <v>2</v>
+        <f>VLOOKUP(MAX(C3:C33),C3:M33,6,FALSE)</f>
+        <v>-4.0330000000000001E-3</v>
       </c>
       <c r="D34">
-        <f>VLOOKUP(MAX(D3:D33),D3:I33,5,FALSE)</f>
+        <f>VLOOKUP(MAX(D3:D33),D3:N33,10,FALSE)</f>
         <v>4</v>
       </c>
       <c r="E34">
-        <f>VLOOKUP(MAX(E3:E33),E3:J33,4,FALSE)</f>
-        <v>6</v>
+        <f>VLOOKUP(MAX(E3:E33),E3:O33,4,FALSE)</f>
+        <v>-8.7310000000000003E-4</v>
       </c>
       <c r="F34">
-        <f>VLOOKUP(MAX(F3:F33),F3:K33,3,FALSE)</f>
-        <v>9</v>
+        <f>VLOOKUP(MAX(F3:F33),F3:P33,3,FALSE)</f>
+        <v>8.2569999999999996E-4</v>
       </c>
       <c r="G34">
-        <f>VLOOKUP(MAX(G3:G33),G3:L33,2,FALSE)</f>
-        <v>13</v>
-      </c>
+        <f>VLOOKUP(MAX(G3:G33),G3:Q33,2,FALSE)</f>
+        <v>2.359E-3</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34"/>
+      <c r="J34"/>
+      <c r="K34"/>
+      <c r="L34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="I1:K10"/>
+    <mergeCell ref="N1:P10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="G3:G33">
-    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
+  <conditionalFormatting sqref="G3:L33">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+      <formula>MAX($G$3:$G$33)</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="12" operator="equal">
       <formula>"max(G3:G33)"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
-      <formula>MAX($G$3:$G$33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3:E33">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>MAX($E$8:$E$33)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3:F33">
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>MAX($F$3:$F$33)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="6" priority="2" operator="equal">
+  <conditionalFormatting sqref="G3:L3">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>MAX($G$3:$G$33)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
